--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>5.567303390342667</v>
+        <v>9.458811508128221</v>
       </c>
       <c r="R2">
-        <v>50.105730513084</v>
+        <v>85.129303573154</v>
       </c>
       <c r="S2">
-        <v>0.05724687279610619</v>
+        <v>0.08142722252275085</v>
       </c>
       <c r="T2">
-        <v>0.05724687279610619</v>
+        <v>0.08142722252275086</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
         <v>9.171654520608778</v>
@@ -635,10 +635,10 @@
         <v>82.544890685479</v>
       </c>
       <c r="S3">
-        <v>0.09430930970672434</v>
+        <v>0.07895519991170555</v>
       </c>
       <c r="T3">
-        <v>0.09430930970672435</v>
+        <v>0.07895519991170555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>8.117605086314445</v>
+        <v>9.339736627803333</v>
       </c>
       <c r="R4">
-        <v>73.05844577683</v>
+        <v>84.05762965023</v>
       </c>
       <c r="S4">
-        <v>0.08347084274073753</v>
+        <v>0.08040215327713235</v>
       </c>
       <c r="T4">
-        <v>0.08347084274073754</v>
+        <v>0.08040215327713235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>3.679555539004445</v>
+        <v>3.726291358421223</v>
       </c>
       <c r="R5">
-        <v>33.11599985104001</v>
+        <v>33.536622225791</v>
       </c>
       <c r="S5">
-        <v>0.03783574077406807</v>
+        <v>0.03207819030604742</v>
       </c>
       <c r="T5">
-        <v>0.03783574077406807</v>
+        <v>0.03207819030604742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>14.83600583207734</v>
+        <v>25.20627543714178</v>
       </c>
       <c r="R6">
-        <v>133.524052488696</v>
+        <v>226.856478934276</v>
       </c>
       <c r="S6">
-        <v>0.1525540965028934</v>
+        <v>0.2169910032805011</v>
       </c>
       <c r="T6">
-        <v>0.1525540965028934</v>
+        <v>0.2169910032805011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>24.44104630503622</v>
@@ -883,10 +883,10 @@
         <v>219.969416745326</v>
       </c>
       <c r="S7">
-        <v>0.2513197810011987</v>
+        <v>0.2104034438638339</v>
       </c>
       <c r="T7">
-        <v>0.2513197810011987</v>
+        <v>0.2104034438638339</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>21.63216695033556</v>
+        <v>24.88895922584667</v>
       </c>
       <c r="R8">
-        <v>194.68950255302</v>
+        <v>224.00063303262</v>
       </c>
       <c r="S8">
-        <v>0.2224369363196803</v>
+        <v>0.2142593516639106</v>
       </c>
       <c r="T8">
-        <v>0.2224369363196803</v>
+        <v>0.2142593516639106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>9.805448636195559</v>
+        <v>9.929992394783779</v>
       </c>
       <c r="R9">
-        <v>88.24903772576002</v>
+        <v>89.36993155305402</v>
       </c>
       <c r="S9">
-        <v>0.1008264201585914</v>
+        <v>0.08548343517411824</v>
       </c>
       <c r="T9">
-        <v>0.1008264201585914</v>
+        <v>0.08548343517411824</v>
       </c>
     </row>
   </sheetData>
